--- a/similarities/split_global/harmonic_similarity_timestamps_221.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,762 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb:7', 'Ab', 'Ab:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:14.910000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:01:20.800000', '0:01:35.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=80.8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_35</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-35#t=22.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>isophonics_116</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'G:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:00:37.470000', '0:00:58.220000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:28.090907', '0:00:44.890544')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=37.47</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=28.090907</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:14.440000', '0:00:33.820000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000')]</t>
+          <t>('0:00:28.800000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:07.300000', '0:01:13.160000')]</t>
+          <t>('0:02:02.780000', '0:02:21.245000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:02.932448', '0:01:12.777709')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:31.898979', '0:00:34.035215')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.760000', '0:00:24.660000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:50.460000', '0:00:54.480000')]</t>
+          <t>('0:00:07.480000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=18.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=50.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'E', 'B', 'F#', 'B', 'E', 'B'], ['B', 'E', 'B', 'F#', 'B', 'E', 'B', 'F#', 'B']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:56.394512'), ('0:00:01.421269', '0:00:51.111972')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:45.294000', '0:02:04.556000'), ('0:01:47.673000', '0:02:10.129000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=105.294', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=107.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['G:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:15.080000', '0:00:18.750000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:07.100430', '0:01:15.018435')]</t>
+          <t>('0:00:57.330000', '0:01:00.690000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=15.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=57.33</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:27.520000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:00:07.540000', '0:00:20.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
+          <t>('0:02:02.780000', '0:02:05')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:52.180000', '0:00:56.760000')]</t>
+          <t>('0:01:06.980000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=52.18']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
